--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8820" windowWidth="40960" windowHeight="16700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="ws">'#system'!$T$2:$T$16</definedName>
     <definedName name="xml">'#system'!$U$2:$U$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="460">
   <si>
     <t>jira</t>
   </si>
@@ -1445,6 +1445,18 @@
     <t>use named var directly</t>
   </si>
   <si>
+    <t xml:space="preserve">- accessing same data via multiple data sources (mydb and mydb_update)
+- to simulate transaction lock, start a transaction to lock EMPLOYEES table in separate thread
+- to reset data, run: 
+     delete from EMPLOYEES WHERE FIRSTNAME = 'James' and LASTNAME = 'Brown';  
+     delete from CUSTOMERS where FIRSTNAME = 'John' and LASTNAME = 'Smith';
+     commit ;
+</t>
+  </si>
+  <si>
+    <t>insert multiple `CUSTOMERS` records via file.  This file contains `ROLLBACK` at the end so we can re-run this repeatedly with the same outcome</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The SQLs in ${INSERT new customers} were executed on
 </t>
@@ -1495,7 +1507,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t>${results}.rowsAffected</t>
+      <t>${results}.rowCount</t>
     </r>
     <r>
       <rPr>
@@ -3681,9 +3693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32293,7 +32305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32303,7 +32315,7 @@
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="31.83203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
@@ -32348,7 +32360,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -43878,7 +43890,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C702" xr:uid="{CCBDA5E2-3B3B-2E48-9D58-650C717DCBB9}">
       <formula1>target</formula1>
     </dataValidation>
@@ -43894,9 +43906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC04F25-55D9-5A4A-83A3-ADFD24F6680B}">
   <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43951,7 +43963,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -44073,7 +44085,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="16700" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8820"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="16700" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8820" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -39,12 +39,13 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="target">'#system'!$A$2:$A$22</definedName>
+    <definedName name="web">'#system'!$R$2:$R$108</definedName>
+    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
+    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
+    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
+    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
+    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="469">
   <si>
     <t>jira</t>
   </si>
@@ -1539,13 +1540,31 @@
   <si>
     <t>ProceedIf(${nexial.scope.currentIteration} = 1)</t>
   </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1636,8 +1655,84 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,8 +1751,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1695,6 +1909,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1702,7 +2110,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1842,6 +2250,42 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2255,9 +2699,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2266,7 +2710,7 @@
     <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2316,22 +2760,25 @@
         <v>364</v>
       </c>
       <c r="Q1" t="s">
+        <v>465</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>378</v>
       </c>
@@ -2381,22 +2828,25 @@
         <v>388</v>
       </c>
       <c r="Q2" t="s">
+        <v>466</v>
+      </c>
+      <c r="R2" t="s">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>175</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>180</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2443,22 +2893,25 @@
         <v>389</v>
       </c>
       <c r="Q3" t="s">
+        <v>467</v>
+      </c>
+      <c r="R3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>181</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>371</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2502,22 +2955,25 @@
         <v>365</v>
       </c>
       <c r="Q4" t="s">
+        <v>468</v>
+      </c>
+      <c r="R4" t="s">
         <v>359</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>182</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2554,23 +3010,23 @@
       <c r="P5" t="s">
         <v>366</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>360</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>178</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>183</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>189</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2604,23 +3060,23 @@
       <c r="P6" t="s">
         <v>368</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>102</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>179</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>184</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>190</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2651,20 +3107,20 @@
       <c r="P7" t="s">
         <v>367</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>103</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>185</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>191</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -2695,20 +3151,20 @@
       <c r="P8" t="s">
         <v>369</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>186</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>192</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2736,17 +3192,17 @@
       <c r="P9" t="s">
         <v>370</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>214</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>193</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -2768,17 +3224,17 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>262</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>194</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2800,17 +3256,17 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>263</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>264</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2829,14 +3285,14 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>105</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2855,14 +3311,14 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>331</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -2881,14 +3337,14 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>106</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2904,14 +3360,14 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>107</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -2927,16 +3383,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>78</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -2947,13 +3403,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -2964,13 +3420,13 @@
       <c r="I18" t="s">
         <v>443</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -2981,13 +3437,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -2998,13 +3454,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3015,682 +3471,685 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
       <c r="C22" t="s">
         <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>362</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>363</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>336</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>273</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>298</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>299</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>308</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>342</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>314</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>315</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>376</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>350</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>318</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>274</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>358</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>319</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>309</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
+    <row r="92">
+      <c r="R92" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
+    <row r="93">
+      <c r="R93" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
+    <row r="94">
+      <c r="R94" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
+    <row r="95">
+      <c r="R95" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
+    <row r="96">
+      <c r="R96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
+    <row r="97">
+      <c r="R97" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
+    <row r="98">
+      <c r="R98" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
+    <row r="99">
+      <c r="R99" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
+    <row r="100">
+      <c r="R100" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
+    <row r="101">
+      <c r="R101" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    <row r="102">
+      <c r="R102" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="103">
+      <c r="R103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="104">
+      <c r="R104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="105">
+      <c r="R105" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="106">
+      <c r="R106" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="107">
+      <c r="R107" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q108" t="s">
+    <row r="108">
+      <c r="R108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3703,7 +4162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -3741,10 +4200,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>21</v>
@@ -15342,9 +15801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE46DF-3AC4-AF42-99AC-606EF1B13E18}">
   <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="136">
+    <sheetView workbookViewId="0" zoomScaleNormal="136" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="F9" pane="bottomLeft" sqref="F9"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15380,10 +15839,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>21</v>
@@ -32313,9 +32772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D267238F-10DD-D84B-A626-A9E448C9DF7F}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32351,10 +32810,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>21</v>
@@ -43916,9 +44375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC04F25-55D9-5A4A-83A3-ADFD24F6680B}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="E7" pane="bottomLeft" sqref="E7"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43954,10 +44413,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>21</v>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="16700" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8820" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="16700" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8820"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -38,14 +38,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="480">
   <si>
     <t>jira</t>
   </si>
@@ -1558,13 +1559,46 @@
   <si>
     <t>validate(prompt,responses,passResponses)</t>
   </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1731,8 +1765,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,8 +1980,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2103,6 +2332,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2110,7 +2533,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,40 +2674,76 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,9 +3158,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2757,24 +3216,27 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>465</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2825,24 +3287,27 @@
         <v>222</v>
       </c>
       <c r="P2" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q2" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>466</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>175</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2890,24 +3355,27 @@
         <v>223</v>
       </c>
       <c r="P3" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>467</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>371</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2952,24 +3420,27 @@
         <v>224</v>
       </c>
       <c r="P4" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>468</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3008,21 +3479,24 @@
         <v>225</v>
       </c>
       <c r="P5" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q5" t="s">
         <v>366</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>189</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3058,21 +3532,24 @@
         <v>398</v>
       </c>
       <c r="P6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q6" t="s">
         <v>368</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>179</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>190</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3105,18 +3582,21 @@
         <v>249</v>
       </c>
       <c r="P7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q7" t="s">
         <v>367</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>191</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3149,18 +3629,21 @@
         <v>250</v>
       </c>
       <c r="P8" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q8" t="s">
         <v>369</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>192</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3190,15 +3673,18 @@
         <v>251</v>
       </c>
       <c r="P9" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q9" t="s">
         <v>370</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>214</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>193</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3224,13 +3710,16 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>479</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>194</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3256,13 +3745,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3285,10 +3774,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3311,10 +3800,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>331</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3337,10 +3826,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>106</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3360,16 +3849,16 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>107</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3383,16 +3872,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -3403,13 +3892,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -3420,13 +3909,13 @@
       <c r="I18" t="s">
         <v>443</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3437,13 +3926,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -3454,13 +3943,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3471,13 +3960,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -3485,18 +3974,21 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3507,7 +3999,7 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3518,7 +4010,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3529,7 +4021,7 @@
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3540,7 +4032,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3551,7 +4043,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3562,7 +4054,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3573,7 +4065,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3584,7 +4076,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3592,7 +4084,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3600,7 +4092,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3608,7 +4100,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3616,7 +4108,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3624,7 +4116,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3632,7 +4124,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>444</v>
       </c>
     </row>
@@ -3640,7 +4132,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3648,7 +4140,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3656,7 +4148,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3664,7 +4156,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3672,7 +4164,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3680,7 +4172,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3688,7 +4180,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3696,7 +4188,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3704,7 +4196,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3712,7 +4204,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3720,7 +4212,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3728,7 +4220,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3736,7 +4228,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3744,412 +4236,409 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="R52" t="s">
+        <v>336</v>
+      </c>
+      <c r="S52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="R53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="R54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R55" t="s">
+        <v>298</v>
+      </c>
+      <c r="S55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="R56" t="s">
+        <v>299</v>
+      </c>
+      <c r="S56" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="R57" t="s">
+        <v>308</v>
+      </c>
+      <c r="S57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="R58" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="R59" t="s">
+        <v>342</v>
+      </c>
+      <c r="S59" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="R60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S60" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="R61" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="R62" t="s">
+        <v>376</v>
+      </c>
+      <c r="S62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="R63" t="s">
+        <v>377</v>
+      </c>
+      <c r="S63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="R64" t="s">
+        <v>350</v>
+      </c>
+      <c r="S64" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="R65" t="s">
+        <v>318</v>
+      </c>
+      <c r="S65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="R66" t="s">
+        <v>274</v>
+      </c>
+      <c r="S66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="R67" t="s">
+        <v>358</v>
+      </c>
+      <c r="S67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="R68" t="s">
+        <v>319</v>
+      </c>
+      <c r="S68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="R69" t="s">
+        <v>309</v>
+      </c>
+      <c r="S69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="R70" t="s">
+        <v>470</v>
+      </c>
+      <c r="S70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="R71" t="s">
+        <v>267</v>
+      </c>
+      <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
-      </c>
-      <c r="R73" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="R74" t="s">
+        <v>291</v>
+      </c>
+      <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="R75" t="s">
+        <v>296</v>
+      </c>
+      <c r="S75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="R76" t="s">
+        <v>337</v>
+      </c>
+      <c r="S76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="R77" t="s">
+        <v>275</v>
+      </c>
+      <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="R78" t="s">
+        <v>286</v>
+      </c>
+      <c r="S78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="R79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="R80" t="s">
+        <v>281</v>
+      </c>
+      <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="R81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="R82" t="s">
+        <v>293</v>
+      </c>
+      <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="R83" t="s">
+        <v>277</v>
+      </c>
+      <c r="S83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="R84" t="s">
+        <v>278</v>
+      </c>
+      <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="R85" t="s">
+        <v>310</v>
+      </c>
+      <c r="S85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="R86" t="s">
+        <v>316</v>
+      </c>
+      <c r="S86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="R87" t="s">
+        <v>300</v>
+      </c>
+      <c r="S87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="R88" t="s">
+        <v>345</v>
+      </c>
+      <c r="S88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="R89" t="s">
+        <v>282</v>
+      </c>
+      <c r="S89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="R90" t="s">
+        <v>283</v>
+      </c>
+      <c r="S90" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -15801,7 +16290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE46DF-3AC4-AF42-99AC-606EF1B13E18}">
   <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="136" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="136">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32772,7 +33261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D267238F-10DD-D84B-A626-A9E448C9DF7F}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -44375,7 +44864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC04F25-55D9-5A4A-83A3-ADFD24F6680B}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{3AF93CDB-2275-8A4F-8ADD-BAFF9ACC52EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -48,7 +48,7 @@
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1602,13 +1602,28 @@
   <si>
     <t>warp(repeats)</t>
   </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1775,8 +1790,178 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1914,8 +2099,280 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2147,6 +2604,482 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2154,7 +3087,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2295,40 +3228,121 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2745,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +3892,7 @@
         <v>464</v>
       </c>
       <c r="Q2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="R2" t="s">
         <v>384</v>
@@ -2949,7 +3963,7 @@
         <v>465</v>
       </c>
       <c r="Q3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="R3" t="s">
         <v>385</v>
@@ -3016,6 +4030,9 @@
       <c r="P4" t="s">
         <v>466</v>
       </c>
+      <c r="Q4" t="s">
+        <v>483</v>
+      </c>
       <c r="R4" t="s">
         <v>361</v>
       </c>
@@ -3075,6 +4092,9 @@
       <c r="P5" t="s">
         <v>467</v>
       </c>
+      <c r="Q5" t="s">
+        <v>484</v>
+      </c>
       <c r="R5" t="s">
         <v>362</v>
       </c>
@@ -3605,7 +4625,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -3616,7 +4636,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -3627,7 +4647,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -3638,7 +4658,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -3649,7 +4669,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -3660,7 +4680,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -3671,7 +4691,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -3682,7 +4702,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -3692,6 +4712,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" t="s">
         <v>263</v>
       </c>
@@ -4257,7 +5280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1006"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15896,7 +16919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FE46DF-3AC4-AF42-99AC-606EF1B13E18}">
   <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" topLeftCell="G1" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32867,7 +33890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D267238F-10DD-D84B-A626-A9E448C9DF7F}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -44470,7 +45493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC04F25-55D9-5A4A-83A3-ADFD24F6680B}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -25,30 +25,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="501">
   <si>
     <t>description</t>
   </si>
@@ -1617,13 +1619,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1960,8 +2007,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="73">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2371,8 +2512,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3080,6 +3374,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3087,7 +3663,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3300,49 +3876,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3757,7 +4378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3818,27 +4439,33 @@
         <v>462</v>
       </c>
       <c r="Q1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R1" t="s">
         <v>473</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>360</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>458</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3874,13 +4501,13 @@
         <v>387</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>489</v>
       </c>
       <c r="L2" t="s">
         <v>476</v>
       </c>
       <c r="M2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="N2" t="s">
         <v>256</v>
@@ -3892,27 +4519,33 @@
         <v>464</v>
       </c>
       <c r="Q2" t="s">
+        <v>493</v>
+      </c>
+      <c r="R2" t="s">
         <v>481</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>384</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>459</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3948,10 +4581,10 @@
         <v>337</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>491</v>
       </c>
       <c r="N3" t="s">
         <v>243</v>
@@ -3962,28 +4595,31 @@
       <c r="P3" t="s">
         <v>465</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>482</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>385</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>460</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>174</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>367</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4016,7 +4652,7 @@
         <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -4030,28 +4666,31 @@
       <c r="P4" t="s">
         <v>466</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>483</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>361</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>461</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>175</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>180</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>186</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4078,7 +4717,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -4092,25 +4731,28 @@
       <c r="P5" t="s">
         <v>467</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>484</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>362</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>176</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>181</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4134,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -4148,22 +4790,25 @@
       <c r="P6" t="s">
         <v>468</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>364</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>177</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>182</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>188</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4187,7 +4832,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -4201,19 +4846,22 @@
       <c r="P7" t="s">
         <v>469</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>363</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4237,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -4248,19 +4896,22 @@
       <c r="P8" t="s">
         <v>470</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>365</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4281,7 +4932,7 @@
         <v>393</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -4292,16 +4943,16 @@
       <c r="P9" t="s">
         <v>471</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>366</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>212</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>191</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4319,10 +4970,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>492</v>
       </c>
       <c r="N10" t="s">
         <v>250</v>
@@ -4330,13 +4981,13 @@
       <c r="P10" t="s">
         <v>472</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>260</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>192</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4354,21 +5005,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>251</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>262</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4385,16 +5036,19 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>252</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4412,15 +5066,15 @@
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>257</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>329</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4438,15 +5092,15 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4463,13 +5117,16 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
         <v>254</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4489,16 +5146,16 @@
       <c r="N16" t="s">
         <v>255</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -4509,13 +5166,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4526,13 +5183,13 @@
       <c r="I18" t="s">
         <v>438</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
         <v>259</v>
@@ -4543,13 +5200,13 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>458</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -4560,13 +5217,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>324</v>
@@ -4577,13 +5234,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -4591,13 +5248,13 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
@@ -4605,13 +5262,13 @@
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -4619,29 +5276,35 @@
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>487</v>
+      </c>
       <c r="C25" t="s">
         <v>485</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4652,7 +5315,7 @@
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4663,7 +5326,7 @@
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4674,7 +5337,7 @@
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4685,7 +5348,7 @@
       <c r="E30" t="s">
         <v>219</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4696,7 +5359,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4707,7 +5370,7 @@
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4718,7 +5381,7 @@
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4726,7 +5389,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4734,7 +5397,7 @@
       <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4742,7 +5405,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4750,524 +5413,532 @@
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="T37" t="s">
-        <v>439</v>
+      <c r="U37" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="T38" t="s">
-        <v>123</v>
+      <c r="U38" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="T39" t="s">
-        <v>124</v>
+      <c r="U39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>215</v>
       </c>
-      <c r="T40" t="s">
-        <v>125</v>
+      <c r="U40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="T41" t="s">
-        <v>126</v>
+      <c r="U41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="T42" t="s">
-        <v>127</v>
+      <c r="U42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="T43" t="s">
-        <v>128</v>
+      <c r="U43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="T44" t="s">
-        <v>216</v>
+      <c r="U44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="T45" t="s">
-        <v>78</v>
+      <c r="U45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="T46" t="s">
-        <v>129</v>
+      <c r="U46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>323</v>
       </c>
-      <c r="T47" t="s">
-        <v>130</v>
+      <c r="U47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="T48" t="s">
-        <v>131</v>
+      <c r="U48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>371</v>
       </c>
-      <c r="T49" t="s">
-        <v>132</v>
+      <c r="U49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
-      <c r="T50" t="s">
-        <v>349</v>
+      <c r="U50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="T51" t="s">
-        <v>133</v>
+      <c r="U51" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="T52" t="s">
-        <v>134</v>
+      <c r="U52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="T53" t="s">
-        <v>135</v>
+      <c r="U53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="T54" t="s">
-        <v>136</v>
+      <c r="U54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="T55" t="s">
-        <v>137</v>
+      <c r="U55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="T56" t="s">
-        <v>138</v>
+      <c r="U56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>306</v>
       </c>
-      <c r="T57" t="s">
-        <v>139</v>
+      <c r="U57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>315</v>
       </c>
-      <c r="T58" t="s">
-        <v>217</v>
+      <c r="U58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="T59" t="s">
-        <v>392</v>
+      <c r="U59" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="T60" t="s">
-        <v>140</v>
+      <c r="U60" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="T61" t="s">
-        <v>141</v>
+      <c r="U61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="T62" t="s">
-        <v>142</v>
+      <c r="U62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>373</v>
       </c>
-      <c r="T63" t="s">
-        <v>143</v>
+      <c r="U63" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="T64" t="s">
-        <v>200</v>
+      <c r="U64" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>316</v>
       </c>
-      <c r="T65" t="s">
-        <v>201</v>
+      <c r="U65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="T66" t="s">
-        <v>144</v>
+      <c r="U66" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="T67" t="s">
-        <v>145</v>
+      <c r="U67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="T68" t="s">
-        <v>146</v>
+      <c r="U68" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>475</v>
       </c>
-      <c r="T69" t="s">
-        <v>147</v>
+      <c r="U69" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="T70" t="s">
-        <v>148</v>
+      <c r="U70" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>463</v>
       </c>
-      <c r="T71" t="s">
-        <v>202</v>
+      <c r="U71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="T72" t="s">
-        <v>203</v>
+      <c r="U72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="T73" t="s">
-        <v>204</v>
+      <c r="U73" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="T74" t="s">
-        <v>205</v>
+      <c r="U74" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="T75" t="s">
-        <v>218</v>
+      <c r="U75" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="T76" t="s">
-        <v>149</v>
+      <c r="U76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="T77" t="s">
-        <v>206</v>
+        <v>488</v>
+      </c>
+      <c r="U77" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="T78" t="s">
-        <v>150</v>
+        <v>335</v>
+      </c>
+      <c r="U78" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>284</v>
-      </c>
-      <c r="T79" t="s">
-        <v>207</v>
+        <v>273</v>
+      </c>
+      <c r="U79" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>290</v>
-      </c>
-      <c r="T80" t="s">
-        <v>208</v>
+        <v>284</v>
+      </c>
+      <c r="U80" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>279</v>
-      </c>
-      <c r="T81" t="s">
-        <v>209</v>
+        <v>290</v>
+      </c>
+      <c r="U81" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="T82" t="s">
-        <v>210</v>
+        <v>279</v>
+      </c>
+      <c r="U82" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-      <c r="T83" t="s">
-        <v>226</v>
+        <v>274</v>
+      </c>
+      <c r="U83" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>275</v>
-      </c>
-      <c r="T84" t="s">
-        <v>211</v>
+        <v>291</v>
+      </c>
+      <c r="U84" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="T85" t="s">
-        <v>151</v>
+        <v>275</v>
+      </c>
+      <c r="U85" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>308</v>
-      </c>
-      <c r="T86" t="s">
-        <v>386</v>
+        <v>276</v>
+      </c>
+      <c r="U86" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>314</v>
-      </c>
-      <c r="T87" t="s">
-        <v>152</v>
+        <v>308</v>
+      </c>
+      <c r="U87" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>298</v>
-      </c>
-      <c r="T88" t="s">
-        <v>153</v>
+        <v>314</v>
+      </c>
+      <c r="U88" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>343</v>
-      </c>
-      <c r="T89" t="s">
-        <v>154</v>
+        <v>298</v>
+      </c>
+      <c r="U89" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>280</v>
-      </c>
-      <c r="T90" t="s">
-        <v>155</v>
+        <v>343</v>
+      </c>
+      <c r="U90" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="U91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>281</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>172</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3AF93CDB-2275-8A4F-8ADD-BAFF9ACC52EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="13_ncr:1_{48AF11FF-1994-244F-BDB2-EF7AF90EB5A8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
@@ -40,27 +40,22 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -70,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -522,9 +517,6 @@
     <t>saveLocation(var)</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>scrollLeft(locator,pixel)</t>
   </si>
   <si>
@@ -667,9 +659,6 @@
   </si>
   <si>
     <t>mail</t>
-  </si>
-  <si>
-    <t>send(to,subject,body)</t>
   </si>
   <si>
     <t>open(url)</t>
@@ -1405,9 +1394,6 @@
     <t>assertTextNotPresent(text)</t>
   </si>
   <si>
-    <t>assertBetween(num,lower,upper)</t>
-  </si>
-  <si>
     <t>${customer}.data[0].Email</t>
   </si>
   <si>
@@ -1593,16 +1579,7 @@
     <t>send(profile,to,subject,body)</t>
   </si>
   <si>
-    <t>assertBetween(num,min,max)</t>
-  </si>
-  <si>
     <t>saveResults(db,sqls,outputDir)</t>
-  </si>
-  <si>
-    <t>lazer(repeats)</t>
-  </si>
-  <si>
-    <t>warp(repeats)</t>
   </si>
   <si>
     <t>laser(repeats)</t>
@@ -1664,13 +1641,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1775,79 +1764,21 @@
       <u val="none"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
       <u val="none"/>
     </font>
     <font>
       <name val="Consolas"/>
       <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
       <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
       <u val="none"/>
     </font>
     <font>
@@ -2102,7 +2033,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="100">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2140,121 +2071,36 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -2666,7 +2512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2770,7 +2616,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2778,43 +2624,43 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </right>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2822,142 +2668,36 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </right>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -3663,7 +3403,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3810,160 +3550,133 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="23" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="25" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="29" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="30" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="32" numFmtId="0" xfId="0">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="37" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="39" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="40" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="44" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="45" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="47" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="50" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4378,7 +4091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4394,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4412,43 +4125,43 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O1" t="s">
         <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="R1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="U1" t="s">
         <v>55</v>
@@ -4463,18 +4176,18 @@
         <v>58</v>
       </c>
       <c r="Y1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Z1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -4492,61 +4205,61 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="R2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="S2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="U2" t="s">
         <v>98</v>
       </c>
       <c r="V2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Z2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -4554,73 +4267,73 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
         <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="U3" t="s">
         <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Y3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -4628,7 +4341,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4637,19 +4350,19 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -4658,40 +4371,40 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="S4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="T4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="U4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Z4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -4699,19 +4412,19 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
@@ -4723,37 +4436,37 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="R5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="S5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Z5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -4761,16 +4474,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4782,34 +4495,34 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U6" t="s">
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Z6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -4817,16 +4530,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -4838,48 +4551,48 @@
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="S7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U7" t="s">
         <v>101</v>
       </c>
       <c r="W7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Z7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -4891,28 +4604,28 @@
         <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U8" t="s">
         <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Z8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -4920,16 +4633,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -4938,33 +4651,33 @@
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="S9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -4973,22 +4686,22 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="U10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="X10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -4996,10 +4709,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -5011,27 +4724,27 @@
         <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -5043,13 +4756,13 @@
         <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U12" t="s">
         <v>103</v>
       </c>
       <c r="X12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -5060,7 +4773,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -5069,24 +4782,24 @@
         <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>
@@ -5095,13 +4808,13 @@
         <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U14" t="s">
         <v>104</v>
       </c>
       <c r="X14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -5109,10 +4822,10 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>85</v>
@@ -5121,41 +4834,41 @@
         <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U15" t="s">
         <v>105</v>
       </c>
       <c r="X15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U16" t="s">
         <v>76</v>
       </c>
       <c r="X16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -5172,7 +4885,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -5181,7 +4894,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -5189,13 +4902,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
@@ -5206,13 +4919,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
@@ -5226,10 +4939,10 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
@@ -5246,7 +4959,7 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -5257,10 +4970,10 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -5271,10 +4984,10 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>
@@ -5282,10 +4995,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C25" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -5296,13 +5009,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="U26" t="s">
         <v>115</v>
@@ -5313,10 +5026,10 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28">
@@ -5324,7 +5037,7 @@
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U28" t="s">
         <v>116</v>
@@ -5335,7 +5048,7 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U29" t="s">
         <v>117</v>
@@ -5346,7 +5059,7 @@
         <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U30" t="s">
         <v>118</v>
@@ -5357,7 +5070,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U31" t="s">
         <v>119</v>
@@ -5368,7 +5081,7 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s">
         <v>120</v>
@@ -5379,7 +5092,7 @@
         <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U33" t="s">
         <v>121</v>
@@ -5387,15 +5100,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="U35" t="s">
         <v>122</v>
@@ -5403,26 +5116,26 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U37" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39">
@@ -5435,7 +5148,7 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U40" t="s">
         <v>124</v>
@@ -5443,7 +5156,7 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U41" t="s">
         <v>125</v>
@@ -5451,7 +5164,7 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="U42" t="s">
         <v>126</v>
@@ -5459,7 +5172,7 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U43" t="s">
         <v>127</v>
@@ -5467,7 +5180,7 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U44" t="s">
         <v>128</v>
@@ -5475,15 +5188,15 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U46" t="s">
         <v>78</v>
@@ -5491,7 +5204,7 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U47" t="s">
         <v>129</v>
@@ -5499,7 +5212,7 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U48" t="s">
         <v>130</v>
@@ -5507,7 +5220,7 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s">
         <v>131</v>
@@ -5515,7 +5228,7 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U50" t="s">
         <v>132</v>
@@ -5523,15 +5236,15 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U52" t="s">
         <v>133</v>
@@ -5539,7 +5252,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U53" t="s">
         <v>134</v>
@@ -5547,7 +5260,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U54" t="s">
         <v>135</v>
@@ -5555,7 +5268,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U55" t="s">
         <v>136</v>
@@ -5563,7 +5276,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="U56" t="s">
         <v>137</v>
@@ -5571,7 +5284,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U57" t="s">
         <v>138</v>
@@ -5579,7 +5292,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U58" t="s">
         <v>139</v>
@@ -5587,23 +5300,23 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U61" t="s">
         <v>140</v>
@@ -5611,7 +5324,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U62" t="s">
         <v>141</v>
@@ -5619,327 +5332,337 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>386</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5989,10 +5712,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -6046,13 +5769,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -6091,7 +5814,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -6101,7 +5824,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6117,22 +5840,22 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -6153,14 +5876,14 @@
         <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="15"/>
@@ -6178,14 +5901,14 @@
         <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="15"/>
@@ -6203,14 +5926,14 @@
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
@@ -6228,14 +5951,14 @@
         <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="15"/>
@@ -6246,7 +5969,7 @@
     <row customHeight="1" ht="206" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>14</v>
@@ -6255,13 +5978,13 @@
         <v>86</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -17628,10 +17351,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>19</v>
@@ -17685,13 +17408,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -17730,7 +17453,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -17740,7 +17463,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -17756,22 +17479,22 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -17792,10 +17515,10 @@
         <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -17817,10 +17540,10 @@
         <v>64</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -17842,14 +17565,14 @@
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
@@ -17867,14 +17590,14 @@
         <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="15"/>
@@ -17892,14 +17615,14 @@
         <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="15"/>
@@ -17917,14 +17640,14 @@
         <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
@@ -17934,7 +17657,7 @@
     </row>
     <row customHeight="1" ht="66" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -17944,18 +17667,18 @@
         <v>86</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="15"/>
@@ -17966,7 +17689,7 @@
     <row customHeight="1" ht="206" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>14</v>
@@ -17975,13 +17698,13 @@
         <v>86</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -34599,10 +34322,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>19</v>
@@ -34618,7 +34341,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -34656,13 +34379,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -34701,25 +34424,25 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -34737,13 +34460,13 @@
         <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -34757,25 +34480,25 @@
     </row>
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -34796,14 +34519,14 @@
         <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="15"/>
@@ -34821,14 +34544,14 @@
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
@@ -34843,13 +34566,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -34871,7 +34594,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -34886,25 +34609,25 @@
     </row>
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -34922,13 +34645,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -34947,13 +34670,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -46202,10 +45925,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>19</v>
@@ -46221,7 +45944,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -46259,13 +45982,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -46304,23 +46027,23 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -46334,7 +46057,7 @@
     <row customHeight="1" ht="100" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -46343,7 +46066,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -46359,7 +46082,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -46368,7 +46091,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="7"/>
@@ -46391,7 +46114,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="7"/>
@@ -46414,7 +46137,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="7"/>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1653,13 +1653,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2032,8 +2035,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2511,8 +2702,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3396,6 +3893,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3403,7 +4464,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3634,49 +4695,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4091,7 +5242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5303,7 +6454,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60">
@@ -5311,7 +6462,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -5319,7 +6470,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -5327,7 +6478,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -5335,7 +6486,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -5343,7 +6494,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65">
@@ -5351,7 +6502,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5359,7 +6510,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -5367,7 +6518,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -5375,7 +6526,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -5383,7 +6534,7 @@
         <v>472</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5391,7 +6542,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5399,7 +6550,7 @@
         <v>460</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5407,7 +6558,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5415,7 +6566,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5423,7 +6574,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -5431,7 +6582,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -5439,7 +6590,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -5447,7 +6598,7 @@
         <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -5455,7 +6606,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -5463,7 +6614,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +6622,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -5479,7 +6630,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82">
@@ -5487,7 +6638,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83">
@@ -5495,7 +6646,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -5503,7 +6654,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -5511,7 +6662,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -5519,7 +6670,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -5527,7 +6678,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -5535,7 +6686,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -5543,7 +6694,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -5551,7 +6702,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -5559,7 +6710,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -5567,101 +6718,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1656,13 +1656,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2223,8 +2229,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3008,8 +3108,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4457,6 +4710,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4464,7 +4999,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4785,49 +5320,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5242,7 +5822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6342,7 +6922,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
@@ -6350,7 +6930,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -6358,7 +6938,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -6366,7 +6946,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -6374,7 +6954,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -6382,7 +6962,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -6390,7 +6970,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -6398,7 +6978,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -6406,7 +6986,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -6414,7 +6994,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -6422,7 +7002,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -6430,7 +7010,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -6438,7 +7018,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -6446,7 +7026,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -6454,7 +7034,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>499</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -6462,7 +7042,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61">
@@ -6470,7 +7050,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -6478,7 +7058,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -6486,7 +7066,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -6494,7 +7074,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -6778,46 +7358,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -22,16 +22,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -45,8 +45,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1662,13 +1662,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2323,8 +2341,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3261,8 +3561,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -4992,6 +5751,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4999,7 +6604,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="175">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5365,49 +6970,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="123" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5822,7 +7562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6148,6 +7888,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>502</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -6241,7 +7984,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>506</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -6296,6 +8039,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>507</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -6346,6 +8092,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -6414,7 +8163,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>504</v>
       </c>
       <c r="M10" t="s">
         <v>486</v>
@@ -6449,7 +8198,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -6481,7 +8230,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6509,6 +8258,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -6659,7 +8411,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -6676,7 +8428,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6692,6 +8444,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7066,7 +8821,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>140</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64">
@@ -7074,7 +8829,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7082,7 +8837,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7090,7 +8845,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7098,7 +8853,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7106,7 +8861,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7114,7 +8869,7 @@
         <v>472</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7122,7 +8877,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7130,7 +8885,7 @@
         <v>460</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7138,7 +8893,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7146,7 +8901,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7154,7 +8909,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -7162,7 +8917,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -7170,7 +8925,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -7178,7 +8933,7 @@
         <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -7186,7 +8941,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -7194,7 +8949,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -7202,7 +8957,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -7210,7 +8965,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -7218,7 +8973,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83">
@@ -7226,7 +8981,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84">
@@ -7234,7 +8989,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -7242,7 +8997,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -7250,7 +9005,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -7258,7 +9013,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -7266,7 +9021,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7274,7 +9029,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -7282,7 +9037,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -7290,7 +9045,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -7298,111 +9053,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>501</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1686,7 +1686,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2623,8 +2623,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4020,8 +4114,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6597,6 +6844,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6604,7 +7133,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7105,49 +7634,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -26,12 +26,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1680,13 +1680,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="193" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2717,8 +2723,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4267,8 +4461,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7126,6 +7626,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7133,7 +8197,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7679,49 +8743,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="168" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8324,7 +9478,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8398,7 +9552,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8469,7 +9623,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8531,7 +9685,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8587,13 +9741,13 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8643,13 +9797,13 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8695,11 +9849,14 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8733,11 +9890,14 @@
       <c r="E10" t="s">
         <v>353</v>
       </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>504</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>486</v>
@@ -8772,7 +9932,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>504</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8804,7 +9964,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8833,7 +9993,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8860,6 +10020,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -21,12 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6568" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1686,13 +1686,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="193" x14ac:knownFonts="1">
+  <fonts count="208" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2911,8 +2926,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4767,8 +4876,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8190,6 +8452,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8197,7 +8741,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8833,49 +9377,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="183" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9398,7 +9987,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>511</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -9478,7 +10067,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>508</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9552,7 +10141,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -9623,7 +10212,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>513</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -9685,7 +10274,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>509</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -9741,7 +10330,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -9797,7 +10386,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -9850,7 +10439,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>514</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -9891,7 +10480,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9928,6 +10517,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -9960,6 +10552,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -9989,6 +10584,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -10193,7 +10791,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -10207,7 +10805,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -10221,7 +10819,7 @@
         <v>481</v>
       </c>
       <c r="C25" t="s">
-        <v>479</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -10235,7 +10833,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -10246,7 +10844,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -10257,7 +10855,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -10268,7 +10866,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -10279,7 +10877,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -10290,7 +10888,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -10301,7 +10899,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -10312,7 +10910,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -10322,6 +10920,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6568" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1701,13 +1701,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="208" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3020,8 +3026,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5029,8 +5223,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8734,6 +9234,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8741,7 +9805,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9422,49 +10486,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9879,7 +11033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11271,7 +12425,7 @@
         <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78">
@@ -11279,7 +12433,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -11287,7 +12441,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -11295,7 +12449,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -11303,7 +12457,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -11311,7 +12465,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -11319,7 +12473,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84">
@@ -11327,7 +12481,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85">
@@ -11335,7 +12489,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -11343,7 +12497,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -11351,7 +12505,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -11359,7 +12513,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -11367,7 +12521,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -11375,7 +12529,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -11383,7 +12537,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -11391,116 +12545,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>501</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1707,13 +1707,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="253" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3214,8 +3217,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5529,8 +5626,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9798,6 +10048,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9805,7 +10337,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10576,49 +11108,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11033,7 +11610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12369,7 +12946,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71">
@@ -12377,7 +12954,7 @@
         <v>460</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -12385,7 +12962,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -12393,7 +12970,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -12401,7 +12978,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -12409,7 +12986,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -12417,7 +12994,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -12425,7 +13002,7 @@
         <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>516</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -12433,7 +13010,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79">
@@ -12441,7 +13018,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -12449,7 +13026,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -12457,7 +13034,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -12465,7 +13042,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -12473,7 +13050,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -12481,7 +13058,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85">
@@ -12489,7 +13066,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86">
@@ -12497,7 +13074,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -12505,7 +13082,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -12513,7 +13090,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -12521,7 +13098,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -12529,7 +13106,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -12537,7 +13114,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -12545,121 +13122,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>501</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8423" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1710,13 +1710,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="253" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3311,8 +3314,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5779,8 +5876,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10330,6 +10580,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10337,7 +10869,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="295">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11153,49 +11685,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="243" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11943,7 +12520,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -12005,7 +12582,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -12061,7 +12638,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>509</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -12117,7 +12694,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -12170,7 +12747,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>514</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -12211,7 +12788,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>514</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -12249,7 +12826,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -12284,7 +12861,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -12316,7 +12893,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -12346,6 +12923,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8423" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9355" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1713,13 +1713,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="298" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3408,8 +3411,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6029,8 +6220,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -10862,6 +11359,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10869,7 +11930,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="325">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11730,49 +12791,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12928,7 +14079,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>519</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -12957,7 +14108,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -12983,7 +14134,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -13006,7 +14157,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -13023,7 +14174,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -13040,7 +14191,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -13057,7 +14208,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>503</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -13074,7 +14225,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -13091,7 +14242,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -13106,6 +14257,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9355" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10291" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1716,13 +1716,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="298" x14ac:knownFonts="1">
+  <fonts count="328" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3599,8 +3605,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6526,8 +6720,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -11923,6 +12423,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11930,7 +12994,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="355">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12881,49 +13945,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="300" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13517,7 +14671,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -13591,7 +14745,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -13662,7 +14816,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>521</v>
       </c>
       <c r="D5" t="s">
         <v>502</v>
@@ -13727,7 +14881,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -13783,7 +14937,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -13839,7 +14993,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -13892,7 +15046,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -13933,7 +15087,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -13971,7 +15125,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -14006,7 +15160,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -14038,7 +15192,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14070,7 +15224,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14102,7 +15256,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -14128,7 +15282,7 @@
         <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -14151,7 +15305,7 @@
         <v>480</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -14168,7 +15322,7 @@
         <v>470</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>471</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -14185,7 +15339,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -14202,7 +15356,7 @@
         <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -14219,7 +15373,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -14236,7 +15390,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -14253,7 +15407,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -14270,7 +15424,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -14284,7 +15438,7 @@
         <v>481</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>510</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -14298,7 +15452,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -14309,7 +15463,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -14320,7 +15474,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -14331,7 +15485,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -14342,7 +15496,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -14353,7 +15507,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -14364,7 +15518,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -14375,7 +15529,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -14386,7 +15540,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -14396,6 +15550,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -14404,6 +15561,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10291" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10760" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1722,13 +1722,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="328" x14ac:knownFonts="1">
+  <fonts count="343" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3793,8 +3796,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7026,8 +7123,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12987,6 +13237,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12994,7 +13526,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="370">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14035,49 +14567,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14492,7 +15069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15704,7 +16281,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54">
@@ -15712,7 +16289,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -15720,7 +16297,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -15728,7 +16305,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -15736,7 +16313,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -15744,7 +16321,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -15752,7 +16329,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -15760,7 +16337,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>499</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -15768,7 +16345,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62">
@@ -15776,7 +16353,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -15784,7 +16361,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>505</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -15792,7 +16369,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65">
@@ -15800,7 +16377,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -15808,7 +16385,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -15816,7 +16393,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -15824,7 +16401,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -15832,7 +16409,7 @@
         <v>472</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -15840,7 +16417,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>517</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -15848,7 +16425,7 @@
         <v>460</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72">
@@ -15856,7 +16433,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -15864,7 +16441,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -15872,7 +16449,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -15880,7 +16457,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -15888,7 +16465,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -15896,7 +16473,7 @@
         <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -15904,7 +16481,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>516</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -15912,7 +16489,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80">
@@ -15920,7 +16497,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -15928,7 +16505,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -15936,7 +16513,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -15944,7 +16521,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -15952,7 +16529,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -15960,7 +16537,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86">
@@ -15968,7 +16545,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87">
@@ -15976,7 +16553,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -15984,7 +16561,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -15992,7 +16569,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16000,7 +16577,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16008,7 +16585,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -16016,126 +16593,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>501</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -21,36 +21,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10760" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11236" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1725,13 +1726,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="343" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3890,8 +3909,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7276,8 +7396,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13519,6 +13792,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13526,7 +14081,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="386">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14612,49 +15167,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15069,7 +15672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15088,75 +15691,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>459</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>480</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>470</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>455</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>481</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15168,1556 +15774,1576 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>511</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>483</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>473</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>484</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>461</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>487</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>475</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>456</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>489</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>520</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>485</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>462</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>476</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>457</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>512</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>463</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>477</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>458</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>490</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>521</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>502</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>518</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>526</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>464</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>478</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>491</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>513</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>465</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>506</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>492</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>509</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>474</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>466</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>507</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>493</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>467</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>494</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>468</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>514</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>486</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>469</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>504</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>519</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>470</v>
-      </c>
-      <c r="C18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" t="s">
         <v>471</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>436</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>436</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>503</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>503</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>481</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>510</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>481</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>479</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="V52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>332</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>269</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="V54" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="V55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>294</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>295</v>
+      </c>
+      <c r="V56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>295</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="V57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>304</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>313</v>
+      </c>
+      <c r="V58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>313</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="V59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>338</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="V60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>310</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>311</v>
+      </c>
+      <c r="V61" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>311</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>370</v>
+      </c>
+      <c r="V62" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>370</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>371</v>
+      </c>
+      <c r="V63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>371</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="V64" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>346</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="V65" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>314</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="V66" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>270</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="V67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>354</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>315</v>
+      </c>
+      <c r="V68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>315</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>472</v>
+      </c>
+      <c r="V69" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>472</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+      <c r="V70" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>460</v>
+      </c>
+      <c r="V71" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>460</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>263</v>
+      </c>
+      <c r="V72" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>263</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+      <c r="V73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>345</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>281</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>287</v>
+      </c>
+      <c r="V75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>287</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>292</v>
+      </c>
+      <c r="V76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>292</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>482</v>
+      </c>
+      <c r="V77" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>482</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>333</v>
+      </c>
+      <c r="V78" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>333</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="V79" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>271</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>282</v>
+      </c>
+      <c r="V80" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>282</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>288</v>
+      </c>
+      <c r="V81" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>288</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>277</v>
+      </c>
+      <c r="V82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>277</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>272</v>
+      </c>
+      <c r="V83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>272</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>289</v>
+      </c>
+      <c r="V84" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>289</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>273</v>
+      </c>
+      <c r="V85" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>273</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V86" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>274</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>306</v>
+      </c>
+      <c r="V87" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>306</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>312</v>
+      </c>
+      <c r="V88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>312</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+      <c r="V89" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>296</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>341</v>
+      </c>
+      <c r="V90" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>341</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+      <c r="V91" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>278</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+      <c r="V92" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>279</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11236" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11713" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1744,13 +1744,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="359" x14ac:knownFonts="1">
+  <fonts count="375" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4010,8 +4013,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7549,8 +7653,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14074,6 +14331,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14081,7 +14620,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="402">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15212,52 +15751,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="345" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15792,7 +16379,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -15875,7 +16462,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -15946,7 +16533,7 @@
         <v>512</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -16017,7 +16604,7 @@
         <v>518</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>526</v>
@@ -16077,6 +16664,9 @@
       </c>
       <c r="G6" t="s">
         <v>513</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/artifact/script/rdbms-05.xlsx
+++ b/artifact/script/rdbms-05.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11713" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12674" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1747,13 +1747,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="375" x14ac:knownFonts="1">
+  <fonts count="407" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4114,8 +4126,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7806,8 +8020,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14613,6 +15133,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14620,7 +15704,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="434">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15799,52 +16883,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="378" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16259,7 +17439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17127,7 +18307,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>533</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -17144,7 +18324,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -17161,7 +18341,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -17178,7 +18358,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>503</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -17195,7 +18375,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -17212,7 +18392,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -17228,6 +18408,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -17262,7 +18445,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -17273,7 +18456,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>531</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -17284,7 +18467,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -17295,7 +18478,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -17306,7 +18489,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -17317,7 +18500,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -17328,7 +18511,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -17339,7 +18522,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -17350,7 +18533,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -17360,6 +18543,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -17368,6 +18554,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -17652,7 +18841,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74">
@@ -17660,7 +18849,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -17668,7 +18857,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -17676,7 +18865,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -17684,7 +18873,7 @@
         <v>482</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -17692,7 +18881,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -17700,7 +18889,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -17708,7 +18897,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>516</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -17716,7 +18905,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82">
@@ -17724,7 +18913,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -17732,7 +18921,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -17740,7 +18929,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -17748,7 +18937,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -17756,7 +18945,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>496</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -17764,7 +18953,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88">
@@ -17772,7 +18961,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89">
@@ -17780,7 +18969,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -17788,7 +18977,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -17796,7 +18985,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -17804,136 +18993,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>501</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>
